--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,51 +43,54 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>risk</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -97,144 +100,144 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>credit</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -247,16 +250,16 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -625,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -736,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8076923076923077</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,16 +810,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.9545454545454546</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7294520547945206</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -986,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5789473684210527</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,16 +1010,16 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,38 +1039,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5641025641025641</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L10">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L10">
-        <v>31</v>
-      </c>
-      <c r="M10">
-        <v>31</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,16 +1160,16 @@
         <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1186,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3604651162790697</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3559322033898305</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8046875</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,7 +1289,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3376623376623377</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -1304,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.803921568627451</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>0.8046875</v>
       </c>
       <c r="L16">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2666666666666667</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L17">
         <v>41</v>
       </c>
-      <c r="K17">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="L17">
-        <v>37</v>
-      </c>
       <c r="M17">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1436,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.25</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7857142857142857</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1984126984126984</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7735849056603774</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L19">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,54 +1539,78 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1233243967828418</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>202</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L20">
+        <v>47</v>
+      </c>
+      <c r="M20">
+        <v>47</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>330</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D20">
-        <v>46</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>327</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L20">
-        <v>109</v>
-      </c>
-      <c r="M20">
-        <v>109</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="K21">
         <v>0.74375</v>
@@ -1609,16 +1636,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.7301587301587301</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1630,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.7222222222222222</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1656,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6914893617021277</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1682,12 +1709,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>0.6458333333333334</v>
@@ -1713,16 +1740,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6176470588235294</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1734,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.6129032258064516</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1760,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.6057441253263708</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1786,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.5852941176470589</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L29">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1812,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5581395348837209</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1838,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5559322033898305</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1864,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1890,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.550561797752809</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1916,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.55</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1942,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.54</v>
+        <v>0.5104602510460251</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1968,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.5188284518828452</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1994,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.475</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2020,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.4743589743589743</v>
+        <v>0.46875</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2046,21 +2073,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.46875</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2072,21 +2099,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.4523809523809524</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2098,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.4461538461538462</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2124,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.4428571428571428</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2150,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.4383561643835616</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2176,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.4042553191489361</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2202,21 +2229,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.1196172248803828</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2228,21 +2255,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>368</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.1177884615384615</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L46">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2254,47 +2281,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.08837209302325581</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K48">
-        <v>0.08837209302325581</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2306,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>0.08165548098434004</v>
+      </c>
+      <c r="L49">
         <v>73</v>
       </c>
-      <c r="K49">
-        <v>0.07941834451901567</v>
-      </c>
-      <c r="L49">
-        <v>71</v>
-      </c>
       <c r="M49">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2332,30 +2359,30 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K50">
-        <v>0.07033639143730887</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M50">
         <v>23</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>304</v>
@@ -2363,16 +2390,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>0.05660377358490566</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2384,163 +2411,163 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K52">
-        <v>0.04615384615384616</v>
+        <v>0.04475308641975308</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K53">
-        <v>0.03938115330520394</v>
+        <v>0.04041570438799076</v>
       </c>
       <c r="L53">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="N53">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2049</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K54">
-        <v>0.03695150115473441</v>
+        <v>0.03604868913857678</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>834</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K55">
-        <v>0.02128345694937117</v>
+        <v>0.02169421487603306</v>
       </c>
       <c r="L55">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3035</v>
+        <v>947</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K56">
-        <v>0.01962809917355372</v>
+        <v>0.01936733376371853</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>949</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K57">
-        <v>0.009076682316118936</v>
+        <v>0.01096491228070175</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N57">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="O57">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>3166</v>
+        <v>3157</v>
       </c>
     </row>
   </sheetData>
